--- a/WEEK08/mksd/실시간도착_역정보(20241110).xlsx
+++ b/WEEK08/mksd/실시간도착_역정보(20241110).xlsx
@@ -1790,7 +1790,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2169,7 +2169,7 @@
     <col min="4" max="4" style="6" width="11.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>1001</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>1001</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>1001</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>1001</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>1001</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
         <v>1001</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
         <v>1001</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
         <v>1001</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
         <v>1001</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
         <v>1001</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>1001</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <v>1001</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>1001</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
         <v>1001</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
         <v>1001</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
         <v>1001</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <v>1001</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
         <v>1001</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>1001</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <v>1001</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
         <v>1001</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
         <v>1001</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
         <v>1001</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
         <v>1001</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3">
         <v>1001</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3">
         <v>1001</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3">
         <v>1001</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3">
         <v>1001</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3">
         <v>1001</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21.75">
       <c r="A35" s="3">
         <v>1001</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3">
         <v>1001</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3">
         <v>1001</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3">
         <v>1001</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3">
         <v>1001</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3">
         <v>1001</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3">
         <v>1001</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3">
         <v>1001</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3">
         <v>1001</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3">
         <v>1001</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3">
         <v>1001</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3">
         <v>1001</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3">
         <v>1001</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3">
         <v>1001</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3">
         <v>1001</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3">
         <v>1001</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3">
         <v>1001</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3">
         <v>1001</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3">
         <v>1001</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3">
         <v>1001</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3">
         <v>1001</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3">
         <v>1001</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3">
         <v>1001</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3">
         <v>1001</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3">
         <v>1001</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3">
         <v>1001</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3">
         <v>1001</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3">
         <v>1001</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3">
         <v>1001</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3">
         <v>1001</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3">
         <v>1001</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3">
         <v>1001</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3">
         <v>1001</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3">
         <v>1001</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3">
         <v>1001</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3">
         <v>1001</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3">
         <v>1001</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3">
         <v>1001</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3">
         <v>1001</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3">
         <v>1001</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3">
         <v>1001</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3">
         <v>1001</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3">
         <v>1001</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3">
         <v>1001</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3">
         <v>1001</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3">
         <v>1001</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3">
         <v>1001</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3">
         <v>1001</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3">
         <v>1001</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3">
         <v>1001</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3">
         <v>1001</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3">
         <v>1001</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3">
         <v>1001</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3">
         <v>1001</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3">
         <v>1001</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3">
         <v>1001</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3">
         <v>1001</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3">
         <v>1001</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3">
         <v>1001</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3">
         <v>1001</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3">
         <v>1001</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3">
         <v>1001</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3">
         <v>1001</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3">
         <v>1001</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3">
         <v>1001</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3">
         <v>1001</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3">
         <v>1001</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3">
         <v>1001</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3">
         <v>1001</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3">
         <v>1002</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3">
         <v>1002</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3">
         <v>1002</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3">
         <v>1002</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3">
         <v>1002</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3">
         <v>1002</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3">
         <v>1002</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3">
         <v>1002</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3">
         <v>1002</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3">
         <v>1002</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3">
         <v>1002</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3">
         <v>1002</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3">
         <v>1002</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3">
         <v>1002</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3">
         <v>1002</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3">
         <v>1002</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3">
         <v>1002</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3">
         <v>1002</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3">
         <v>1002</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3">
         <v>1002</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3">
         <v>1002</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3">
         <v>1002</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3">
         <v>1002</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3">
         <v>1002</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3">
         <v>1002</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3">
         <v>1002</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3">
         <v>1002</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3">
         <v>1002</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3">
         <v>1002</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3">
         <v>1002</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3">
         <v>1002</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3">
         <v>1002</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3">
         <v>1002</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3">
         <v>1002</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3">
         <v>1002</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3">
         <v>1002</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3">
         <v>1002</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3">
         <v>1002</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3">
         <v>1002</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3">
         <v>1002</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3">
         <v>1002</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3">
         <v>1002</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3">
         <v>1002</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3">
         <v>1002</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3">
         <v>1002</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3">
         <v>1002</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3">
         <v>1002</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3">
         <v>1002</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3">
         <v>1002</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3">
         <v>1002</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3">
         <v>1002</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3">
         <v>1003</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3">
         <v>1003</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3">
         <v>1003</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3">
         <v>1003</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3">
         <v>1003</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3">
         <v>1003</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3">
         <v>1003</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3">
         <v>1003</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3">
         <v>1003</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3">
         <v>1003</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3">
         <v>1003</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3">
         <v>1003</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3">
         <v>1003</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3">
         <v>1003</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3">
         <v>1003</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3">
         <v>1003</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3">
         <v>1003</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3">
         <v>1003</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3">
         <v>1003</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3">
         <v>1003</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3">
         <v>1003</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3">
         <v>1003</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3">
         <v>1003</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3">
         <v>1003</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3">
         <v>1003</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3">
         <v>1003</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3">
         <v>1003</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3">
         <v>1003</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3">
         <v>1003</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3">
         <v>1003</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3">
         <v>1003</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3">
         <v>1003</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3">
         <v>1003</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3">
         <v>1003</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3">
         <v>1003</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3">
         <v>1003</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3">
         <v>1003</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3">
         <v>1003</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3">
         <v>1003</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3">
         <v>1003</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3">
         <v>1003</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3">
         <v>1003</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3">
         <v>1003</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3">
         <v>1003</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3">
         <v>1004</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3">
         <v>1004</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3">
         <v>1004</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3">
         <v>1004</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3">
         <v>1004</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3">
         <v>1004</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3">
         <v>1004</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3">
         <v>1004</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3">
         <v>1004</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3">
         <v>1004</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3">
         <v>1004</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3">
         <v>1004</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3">
         <v>1004</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3">
         <v>1004</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="3">
         <v>1004</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3">
         <v>1004</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3">
         <v>1004</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="21.75">
       <c r="A216" s="3">
         <v>1004</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3">
         <v>1004</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3">
         <v>1004</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="3">
         <v>1004</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3">
         <v>1004</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3">
         <v>1004</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3">
         <v>1004</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3">
         <v>1004</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3">
         <v>1004</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3">
         <v>1004</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3">
         <v>1004</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="3">
         <v>1004</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3">
         <v>1004</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3">
         <v>1004</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3">
         <v>1004</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3">
         <v>1004</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3">
         <v>1004</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3">
         <v>1004</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3">
         <v>1004</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="3">
         <v>1004</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3">
         <v>1004</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3">
         <v>1004</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3">
         <v>1004</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3">
         <v>1004</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3">
         <v>1004</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="3">
         <v>1004</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3">
         <v>1004</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3">
         <v>1004</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3">
         <v>1004</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3">
         <v>1004</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3">
         <v>1004</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3">
         <v>1005</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3">
         <v>1005</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3">
         <v>1005</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3">
         <v>1005</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3">
         <v>1005</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3">
         <v>1005</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3">
         <v>1005</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3">
         <v>1005</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3">
         <v>1005</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3">
         <v>1005</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3">
         <v>1005</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3">
         <v>1005</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3">
         <v>1005</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3">
         <v>1005</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3">
         <v>1005</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3">
         <v>1005</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3">
         <v>1005</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3">
         <v>1005</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3">
         <v>1005</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3">
         <v>1005</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3">
         <v>1005</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3">
         <v>1005</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3">
         <v>1005</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3">
         <v>1005</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3">
         <v>1005</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3">
         <v>1005</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="3">
         <v>1005</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="3">
         <v>1005</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="3">
         <v>1005</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="3">
         <v>1005</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="3">
         <v>1005</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="3">
         <v>1005</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="3">
         <v>1005</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="3">
         <v>1005</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="3">
         <v>1005</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="3">
         <v>1005</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="3">
         <v>1005</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="3">
         <v>1005</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="3">
         <v>1005</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="3">
         <v>1005</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="3">
         <v>1005</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="3">
         <v>1005</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="3">
         <v>1005</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="3">
         <v>1005</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="3">
         <v>1005</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="3">
         <v>1005</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="3">
         <v>1005</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="3">
         <v>1005</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="3">
         <v>1005</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="3">
         <v>1005</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="3">
         <v>1005</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="3">
         <v>1005</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="3">
         <v>1005</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="3">
         <v>1005</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="3">
         <v>1005</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="3">
         <v>1005</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>241</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="3">
         <v>1006</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="3">
         <v>1006</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="3">
         <v>1006</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="3">
         <v>1006</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="3">
         <v>1006</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="3">
         <v>1006</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="3">
         <v>1006</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="3">
         <v>1006</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="3">
         <v>1006</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="3">
         <v>1006</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="3">
         <v>1006</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="3">
         <v>1006</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="3">
         <v>1006</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
       <c r="A316" s="3">
         <v>1006</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
       <c r="A317" s="3">
         <v>1006</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
       <c r="A318" s="3">
         <v>1006</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
       <c r="A319" s="3">
         <v>1006</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
       <c r="A320" s="3">
         <v>1006</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
       <c r="A321" s="3">
         <v>1006</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
       <c r="A322" s="3">
         <v>1006</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
       <c r="A323" s="3">
         <v>1006</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
       <c r="A324" s="3">
         <v>1006</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
       <c r="A325" s="3">
         <v>1006</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
       <c r="A326" s="3">
         <v>1006</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
       <c r="A327" s="3">
         <v>1006</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
       <c r="A328" s="3">
         <v>1006</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
       <c r="A329" s="3">
         <v>1006</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="3">
         <v>1006</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
       <c r="A331" s="3">
         <v>1006</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
       <c r="A332" s="3">
         <v>1006</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
       <c r="A333" s="3">
         <v>1006</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
       <c r="A334" s="3">
         <v>1006</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
       <c r="A335" s="3">
         <v>1006</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
       <c r="A336" s="3">
         <v>1006</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
       <c r="A337" s="3">
         <v>1006</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
       <c r="A338" s="3">
         <v>1006</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
       <c r="A339" s="3">
         <v>1006</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
       <c r="A340" s="3">
         <v>1006</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
       <c r="A341" s="3">
         <v>1006</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
       <c r="A342" s="3">
         <v>1007</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
       <c r="A343" s="3">
         <v>1007</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
       <c r="A344" s="3">
         <v>1007</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
       <c r="A345" s="3">
         <v>1007</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
       <c r="A346" s="3">
         <v>1007</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
       <c r="A347" s="3">
         <v>1007</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
       <c r="A348" s="3">
         <v>1007</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
       <c r="A349" s="3">
         <v>1007</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
       <c r="A350" s="3">
         <v>1007</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
       <c r="A351" s="3">
         <v>1007</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
       <c r="A352" s="3">
         <v>1007</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
       <c r="A353" s="3">
         <v>1007</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
       <c r="A354" s="3">
         <v>1007</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
       <c r="A355" s="3">
         <v>1007</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
       <c r="A356" s="3">
         <v>1007</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
       <c r="A357" s="3">
         <v>1007</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
       <c r="A358" s="3">
         <v>1007</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
       <c r="A359" s="3">
         <v>1007</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
       <c r="A360" s="3">
         <v>1007</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
       <c r="A361" s="3">
         <v>1007</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
       <c r="A362" s="3">
         <v>1007</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
       <c r="A363" s="3">
         <v>1007</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
       <c r="A364" s="3">
         <v>1007</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
       <c r="A365" s="3">
         <v>1007</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
       <c r="A366" s="3">
         <v>1007</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
       <c r="A367" s="3">
         <v>1007</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
       <c r="A368" s="3">
         <v>1007</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
       <c r="A369" s="3">
         <v>1007</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
       <c r="A370" s="3">
         <v>1007</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
       <c r="A371" s="3">
         <v>1007</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
       <c r="A372" s="3">
         <v>1007</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
       <c r="A373" s="3">
         <v>1007</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
       <c r="A374" s="3">
         <v>1007</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
       <c r="A375" s="3">
         <v>1007</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
       <c r="A376" s="3">
         <v>1007</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
       <c r="A377" s="3">
         <v>1007</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
       <c r="A378" s="3">
         <v>1007</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
       <c r="A379" s="3">
         <v>1007</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
       <c r="A380" s="3">
         <v>1007</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
       <c r="A381" s="3">
         <v>1007</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
       <c r="A382" s="3">
         <v>1007</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
       <c r="A383" s="3">
         <v>1007</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
       <c r="A384" s="3">
         <v>1007</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
       <c r="A385" s="3">
         <v>1007</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
       <c r="A386" s="3">
         <v>1007</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
       <c r="A387" s="3">
         <v>1007</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
       <c r="A388" s="3">
         <v>1007</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
       <c r="A389" s="3">
         <v>1007</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
       <c r="A390" s="3">
         <v>1007</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
       <c r="A391" s="3">
         <v>1007</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
       <c r="A392" s="3">
         <v>1007</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
       <c r="A393" s="3">
         <v>1007</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
       <c r="A394" s="3">
         <v>1007</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>319</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
       <c r="A395" s="3">
         <v>1008</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
       <c r="A396" s="3">
         <v>1008</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
       <c r="A397" s="3">
         <v>1008</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
       <c r="A398" s="3">
         <v>1008</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
       <c r="A399" s="3">
         <v>1008</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
       <c r="A400" s="3">
         <v>1008</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
       <c r="A401" s="3">
         <v>1008</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
       <c r="A402" s="3">
         <v>1008</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
       <c r="A403" s="3">
         <v>1008</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
       <c r="A404" s="3">
         <v>1008</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
       <c r="A405" s="3">
         <v>1008</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
       <c r="A406" s="3">
         <v>1008</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
       <c r="A407" s="3">
         <v>1008</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
       <c r="A408" s="3">
         <v>1008</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="3">
         <v>1008</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
       <c r="A410" s="3">
         <v>1008</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
       <c r="A411" s="3">
         <v>1008</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
       <c r="A412" s="3">
         <v>1008</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
       <c r="A413" s="3">
         <v>1008</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
       <c r="A414" s="3">
         <v>1008</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
       <c r="A415" s="3">
         <v>1008</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
       <c r="A416" s="3">
         <v>1008</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
       <c r="A417" s="3">
         <v>1008</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
       <c r="A418" s="3">
         <v>1008</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
       <c r="A419" s="3">
         <v>1009</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
       <c r="A420" s="3">
         <v>1009</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
       <c r="A421" s="3">
         <v>1009</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
       <c r="A422" s="3">
         <v>1009</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
       <c r="A423" s="3">
         <v>1009</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
       <c r="A424" s="3">
         <v>1009</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
       <c r="A425" s="3">
         <v>1009</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
       <c r="A426" s="3">
         <v>1009</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
       <c r="A427" s="3">
         <v>1009</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
       <c r="A428" s="3">
         <v>1009</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
       <c r="A429" s="3">
         <v>1009</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
       <c r="A430" s="3">
         <v>1009</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
       <c r="A431" s="3">
         <v>1009</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
       <c r="A432" s="3">
         <v>1009</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
       <c r="A433" s="3">
         <v>1009</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
       <c r="A434" s="3">
         <v>1009</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
       <c r="A435" s="3">
         <v>1009</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
       <c r="A436" s="3">
         <v>1009</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
       <c r="A437" s="3">
         <v>1009</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
       <c r="A438" s="3">
         <v>1009</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
       <c r="A439" s="3">
         <v>1009</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
       <c r="A440" s="3">
         <v>1009</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
       <c r="A441" s="3">
         <v>1009</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
       <c r="A442" s="3">
         <v>1009</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
       <c r="A443" s="3">
         <v>1009</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
       <c r="A444" s="3">
         <v>1009</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
       <c r="A445" s="3">
         <v>1009</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
       <c r="A446" s="3">
         <v>1009</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
       <c r="A447" s="3">
         <v>1009</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
       <c r="A448" s="3">
         <v>1009</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
       <c r="A449" s="3">
         <v>1009</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
       <c r="A450" s="3">
         <v>1009</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
       <c r="A451" s="3">
         <v>1009</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
       <c r="A452" s="3">
         <v>1009</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
       <c r="A453" s="3">
         <v>1009</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
       <c r="A454" s="3">
         <v>1009</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
       <c r="A455" s="3">
         <v>1009</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
       <c r="A456" s="3">
         <v>1009</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
       <c r="A457" s="3">
         <v>1032</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
       <c r="A458" s="3">
         <v>1032</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
       <c r="A459" s="3">
         <v>1032</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
       <c r="A460" s="3">
         <v>1032</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
       <c r="A461" s="3">
         <v>1063</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
       <c r="A462" s="3">
         <v>1063</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
       <c r="A463" s="3">
         <v>1063</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
       <c r="A464" s="3">
         <v>1063</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
       <c r="A465" s="3">
         <v>1063</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
       <c r="A466" s="3">
         <v>1063</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
       <c r="A467" s="3">
         <v>1063</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
       <c r="A468" s="3">
         <v>1063</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
       <c r="A469" s="3">
         <v>1063</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
       <c r="A470" s="3">
         <v>1063</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
       <c r="A471" s="3">
         <v>1063</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
       <c r="A472" s="3">
         <v>1063</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
       <c r="A473" s="3">
         <v>1063</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
       <c r="A474" s="3">
         <v>1063</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
       <c r="A475" s="3">
         <v>1063</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
       <c r="A476" s="3">
         <v>1063</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
       <c r="A477" s="3">
         <v>1063</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
       <c r="A478" s="3">
         <v>1063</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
       <c r="A479" s="3">
         <v>1063</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
       <c r="A480" s="3">
         <v>1063</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
       <c r="A481" s="3">
         <v>1063</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
       <c r="A482" s="3">
         <v>1063</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
       <c r="A483" s="3">
         <v>1063</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
       <c r="A484" s="3">
         <v>1063</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
       <c r="A485" s="3">
         <v>1063</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
       <c r="A486" s="3">
         <v>1063</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
       <c r="A487" s="3">
         <v>1063</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
       <c r="A488" s="3">
         <v>1063</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
       <c r="A489" s="3">
         <v>1063</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
       <c r="A490" s="3">
         <v>1063</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
       <c r="A491" s="3">
         <v>1063</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
       <c r="A492" s="3">
         <v>1063</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
       <c r="A493" s="3">
         <v>1063</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
       <c r="A494" s="3">
         <v>1063</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
       <c r="A495" s="3">
         <v>1063</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
       <c r="A496" s="3">
         <v>1063</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
       <c r="A497" s="3">
         <v>1063</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
       <c r="A498" s="3">
         <v>1063</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
       <c r="A499" s="3">
         <v>1063</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
       <c r="A500" s="3">
         <v>1063</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
       <c r="A501" s="3">
         <v>1063</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
       <c r="A502" s="3">
         <v>1063</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
       <c r="A503" s="3">
         <v>1063</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
       <c r="A504" s="3">
         <v>1063</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
       <c r="A505" s="3">
         <v>1063</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
       <c r="A506" s="3">
         <v>1063</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
       <c r="A507" s="3">
         <v>1063</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
       <c r="A508" s="3">
         <v>1063</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
       <c r="A509" s="3">
         <v>1063</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
       <c r="A510" s="3">
         <v>1063</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
       <c r="A511" s="3">
         <v>1063</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
       <c r="A512" s="3">
         <v>1063</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
       <c r="A513" s="3">
         <v>1063</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
       <c r="A514" s="3">
         <v>1063</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
       <c r="A515" s="3">
         <v>1063</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
       <c r="A516" s="3">
         <v>1063</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="21.75">
       <c r="A517" s="3">
         <v>1063</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>419</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="21.75">
       <c r="A518" s="3">
         <v>1065</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
       <c r="A519" s="3">
         <v>1065</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
       <c r="A520" s="3">
         <v>1065</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
       <c r="A521" s="3">
         <v>1065</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
       <c r="A522" s="3">
         <v>1065</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
       <c r="A523" s="3">
         <v>1065</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
       <c r="A524" s="3">
         <v>1065</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
       <c r="A525" s="3">
         <v>1065</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
       <c r="A526" s="3">
         <v>1065</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
       <c r="A527" s="3">
         <v>1065</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
       <c r="A528" s="3">
         <v>1065</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
       <c r="A529" s="3">
         <v>1065</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
       <c r="A530" s="3">
         <v>1065</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
       <c r="A531" s="3">
         <v>1065</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
       <c r="A532" s="3">
         <v>1067</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
       <c r="A533" s="3">
         <v>1067</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
       <c r="A534" s="3">
         <v>1067</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
       <c r="A535" s="3">
         <v>1067</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
       <c r="A536" s="3">
         <v>1067</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
       <c r="A537" s="3">
         <v>1067</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
       <c r="A538" s="3">
         <v>1067</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
       <c r="A539" s="3">
         <v>1067</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
       <c r="A540" s="3">
         <v>1067</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
       <c r="A541" s="3">
         <v>1067</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
       <c r="A542" s="3">
         <v>1067</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
       <c r="A543" s="3">
         <v>1067</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
       <c r="A544" s="3">
         <v>1067</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
       <c r="A545" s="3">
         <v>1067</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
       <c r="A546" s="3">
         <v>1067</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
       <c r="A547" s="3">
         <v>1067</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
       <c r="A548" s="3">
         <v>1067</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
       <c r="A549" s="3">
         <v>1067</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
       <c r="A550" s="3">
         <v>1067</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
       <c r="A551" s="3">
         <v>1067</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
       <c r="A552" s="3">
         <v>1067</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
       <c r="A553" s="3">
         <v>1067</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
       <c r="A554" s="3">
         <v>1067</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
       <c r="A555" s="3">
         <v>1067</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
       <c r="A556" s="3">
         <v>1067</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
       <c r="A557" s="3">
         <v>1075</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
       <c r="A558" s="3">
         <v>1075</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
       <c r="A559" s="3">
         <v>1075</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
       <c r="A560" s="3">
         <v>1075</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
       <c r="A561" s="3">
         <v>1075</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
       <c r="A562" s="3">
         <v>1075</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
       <c r="A563" s="3">
         <v>1075</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
       <c r="A564" s="3">
         <v>1075</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
       <c r="A565" s="3">
         <v>1075</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
       <c r="A566" s="3">
         <v>1075</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
       <c r="A567" s="3">
         <v>1075</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
       <c r="A568" s="3">
         <v>1075</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
       <c r="A569" s="3">
         <v>1075</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
       <c r="A570" s="3">
         <v>1075</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
       <c r="A571" s="3">
         <v>1075</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
       <c r="A572" s="3">
         <v>1075</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
       <c r="A573" s="3">
         <v>1075</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
       <c r="A574" s="3">
         <v>1075</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
       <c r="A575" s="3">
         <v>1075</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
       <c r="A576" s="3">
         <v>1075</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
       <c r="A577" s="3">
         <v>1075</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
       <c r="A578" s="3">
         <v>1075</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
       <c r="A579" s="3">
         <v>1075</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
       <c r="A580" s="3">
         <v>1075</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
       <c r="A581" s="3">
         <v>1075</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
       <c r="A582" s="3">
         <v>1075</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
       <c r="A583" s="3">
         <v>1075</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
       <c r="A584" s="3">
         <v>1075</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
       <c r="A585" s="3">
         <v>1075</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
       <c r="A586" s="3">
         <v>1075</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
       <c r="A587" s="3">
         <v>1075</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
       <c r="A588" s="3">
         <v>1075</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
       <c r="A589" s="3">
         <v>1075</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
       <c r="A590" s="3">
         <v>1075</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
       <c r="A591" s="3">
         <v>1075</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
       <c r="A592" s="3">
         <v>1075</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
       <c r="A593" s="3">
         <v>1075</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
       <c r="A594" s="3">
         <v>1075</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
       <c r="A595" s="3">
         <v>1075</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
       <c r="A596" s="3">
         <v>1075</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
       <c r="A597" s="3">
         <v>1075</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
       <c r="A598" s="3">
         <v>1075</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
       <c r="A599" s="3">
         <v>1075</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
       <c r="A600" s="3">
         <v>1075</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
       <c r="A601" s="3">
         <v>1075</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
       <c r="A602" s="3">
         <v>1075</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
       <c r="A603" s="3">
         <v>1075</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
       <c r="A604" s="3">
         <v>1075</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
       <c r="A605" s="3">
         <v>1075</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
       <c r="A606" s="3">
         <v>1075</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
       <c r="A607" s="3">
         <v>1075</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
       <c r="A608" s="3">
         <v>1075</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
       <c r="A609" s="3">
         <v>1075</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
       <c r="A610" s="3">
         <v>1075</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
       <c r="A611" s="3">
         <v>1075</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
       <c r="A612" s="3">
         <v>1075</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
       <c r="A613" s="3">
         <v>1075</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
       <c r="A614" s="3">
         <v>1075</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
       <c r="A615" s="3">
         <v>1075</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
       <c r="A616" s="3">
         <v>1075</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
       <c r="A617" s="3">
         <v>1075</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
       <c r="A618" s="3">
         <v>1075</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
       <c r="A619" s="3">
         <v>1075</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>489</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
       <c r="A620" s="3">
         <v>1077</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
       <c r="A621" s="3">
         <v>1077</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
       <c r="A622" s="3">
         <v>1077</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
       <c r="A623" s="3">
         <v>1077</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
       <c r="A624" s="3">
         <v>1077</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
       <c r="A625" s="3">
         <v>1077</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
       <c r="A626" s="3">
         <v>1077</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
       <c r="A627" s="3">
         <v>1077</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
       <c r="A628" s="3">
         <v>1077</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
       <c r="A629" s="3">
         <v>1077</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
       <c r="A630" s="3">
         <v>1077</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
       <c r="A631" s="3">
         <v>1077</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
       <c r="A632" s="3">
         <v>1077</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
       <c r="A633" s="3">
         <v>1077</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
       <c r="A634" s="3">
         <v>1077</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
       <c r="A635" s="3">
         <v>1077</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
       <c r="A636" s="3">
         <v>1081</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
       <c r="A637" s="3">
         <v>1081</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
       <c r="A638" s="3">
         <v>1081</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75">
       <c r="A639" s="3">
         <v>1081</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
       <c r="A640" s="3">
         <v>1081</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
       <c r="A641" s="3">
         <v>1081</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75">
       <c r="A642" s="3">
         <v>1081</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75">
       <c r="A643" s="3">
         <v>1081</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
       <c r="A644" s="3">
         <v>1081</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75">
       <c r="A645" s="3">
         <v>1081</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
       <c r="A646" s="3">
         <v>1081</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
       <c r="A647" s="3">
         <v>1081</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>543</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75">
       <c r="A648" s="3">
         <v>1092</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75">
       <c r="A649" s="3">
         <v>1092</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75">
       <c r="A650" s="3">
         <v>1092</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
       <c r="A651" s="3">
         <v>1092</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
       <c r="A652" s="3">
         <v>1092</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
       <c r="A653" s="3">
         <v>1092</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75">
       <c r="A654" s="3">
         <v>1092</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
       <c r="A655" s="3">
         <v>1092</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75">
       <c r="A656" s="3">
         <v>1092</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
       <c r="A657" s="3">
         <v>1092</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75">
       <c r="A658" s="3">
         <v>1092</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75">
       <c r="A659" s="3">
         <v>1092</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75">
       <c r="A660" s="3">
         <v>1092</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
       <c r="A661" s="3">
         <v>1093</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
       <c r="A662" s="3">
         <v>1093</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
       <c r="A663" s="3">
         <v>1093</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75">
       <c r="A664" s="3">
         <v>1093</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75">
       <c r="A665" s="3">
         <v>1093</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75">
       <c r="A666" s="3">
         <v>1093</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75">
       <c r="A667" s="3">
         <v>1093</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75">
       <c r="A668" s="3">
         <v>1093</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75">
       <c r="A669" s="3">
         <v>1093</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75">
       <c r="A670" s="3">
         <v>1093</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75">
       <c r="A671" s="3">
         <v>1093</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
       <c r="A672" s="3">
         <v>1093</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75">
       <c r="A673" s="3">
         <v>1093</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
       <c r="A674" s="3">
         <v>1093</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75">
       <c r="A675" s="3">
         <v>1093</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75">
       <c r="A676" s="3">
         <v>1093</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75">
       <c r="A677" s="3">
         <v>1093</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
       <c r="A678" s="3">
         <v>1093</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
       <c r="A679" s="3">
         <v>1093</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75">
       <c r="A680" s="3">
         <v>1093</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75">
       <c r="A681" s="3">
         <v>1093</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>564</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75">
       <c r="A682" s="3">
         <v>1094</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75">
       <c r="A683" s="3">
         <v>1094</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
       <c r="A684" s="3">
         <v>1094</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75">
       <c r="A685" s="3">
         <v>1094</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
       <c r="A686" s="3">
         <v>1094</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75">
       <c r="A687" s="3">
         <v>1094</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75">
       <c r="A688" s="3">
         <v>1094</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75">
       <c r="A689" s="3">
         <v>1094</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75">
       <c r="A690" s="3">
         <v>1094</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75">
       <c r="A691" s="3">
         <v>1094</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>576</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75">
       <c r="A692" s="3">
         <v>1094</v>
       </c>
